--- a/weekend-project-2/Transactions-report.xlsx
+++ b/weekend-project-2/Transactions-report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikos\Desktop\SolidityBootcamp\Encode-Solidity-Bootcamp-Weekend-Projects\weekend-project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A318E0-7991-4C3D-A643-B36C304E966A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D7163A-BC71-4194-A5BB-CDEDDB2C47A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24285" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -207,10 +207,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,7 +496,7 @@
   <dimension ref="A2:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,10 +564,10 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -599,13 +599,13 @@
       <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -619,13 +619,13 @@
       <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -639,13 +639,13 @@
       <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>28</v>
       </c>
     </row>

--- a/weekend-project-2/Transactions-report.xlsx
+++ b/weekend-project-2/Transactions-report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikos\Desktop\SolidityBootcamp\Encode-Solidity-Bootcamp-Weekend-Projects\weekend-project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D7163A-BC71-4194-A5BB-CDEDDB2C47A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD7B20B-6048-4461-B816-43A9320000FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24285" yWindow="2805" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7245" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Nikos</t>
   </si>
@@ -118,18 +118,35 @@
   </si>
   <si>
     <t>Contract deployment with 2 proposals (array parameter) coffee[0] tea[1]</t>
+  </si>
+  <si>
+    <t>0x325fde66e12f6b44a18a1512e9cc138f5fa705a931fb6b6274d7ff8630ac3202</t>
+  </si>
+  <si>
+    <t>giveRightToVote / address / 	0xE3A9a11232f4D52786CA61f56bB7Fb01b00C80cd</t>
+  </si>
+  <si>
+    <t>Nikos give rights to to Eniola so he can vote</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,9 +195,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -202,6 +219,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -495,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,10 +584,10 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -639,7 +659,7 @@
       <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -649,7 +669,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/weekend-project-2/Transactions-report.xlsx
+++ b/weekend-project-2/Transactions-report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikos\Desktop\SolidityBootcamp\Encode-Solidity-Bootcamp-Weekend-Projects\weekend-project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD7B20B-6048-4461-B816-43A9320000FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DD8847-8D1F-4C5D-A7DA-F856368CF2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Nikos</t>
   </si>
@@ -87,58 +87,57 @@
     <t>Did not participate</t>
   </si>
   <si>
-    <t>https://goerli.etherscan.io/address/0x41874b62017e8bf2c533B73c11750FDBB78ac956</t>
-  </si>
-  <si>
-    <t>0x7e49beb24d4f429da864ea0495d92ca03a4de167924f2d0f2ab80da5719b7f66</t>
-  </si>
-  <si>
-    <t>0x41874b62017e8bf2c533b73c11750fdbb78ac956</t>
-  </si>
-  <si>
-    <t>0xd829d24404bbe4c8db7abfe4d45bf28b506f81e3862949c777ee6615fcd311ff</t>
-  </si>
-  <si>
     <t>Nikos give rights to to Ercan so he can vote</t>
   </si>
   <si>
-    <t>0xaafd057d0e9e6c74768cb1198e69221eb94d6de8cf25216072dd7d76ca2a7b37</t>
-  </si>
-  <si>
-    <t>giveRightToVote / address / 0xF0263339678ec2ad8C6722b5eCedDB904cBed19D</t>
-  </si>
-  <si>
-    <t>vote / uint256 / 0</t>
-  </si>
-  <si>
-    <t>Nikos voted for coffee</t>
-  </si>
-  <si>
     <t>2 proposals in contructor coffee[0] and tea [1]</t>
   </si>
   <si>
     <t>Contract deployment with 2 proposals (array parameter) coffee[0] tea[1]</t>
   </si>
   <si>
-    <t>0x325fde66e12f6b44a18a1512e9cc138f5fa705a931fb6b6274d7ff8630ac3202</t>
-  </si>
-  <si>
     <t>giveRightToVote / address / 	0xE3A9a11232f4D52786CA61f56bB7Fb01b00C80cd</t>
   </si>
   <si>
-    <t>Nikos give rights to to Eniola so he can vote</t>
+    <t>https://goerli.etherscan.io/address/0xcDC6534ef547F3DfC7B3D8F8f95Bc25AC46e659D</t>
+  </si>
+  <si>
+    <t>0xcdc6534ef547f3dfc7b3d8f8f95bc25ac46e659d</t>
+  </si>
+  <si>
+    <t>0xebf02ff383687e92808f781b67d57254a890ee554b4a0515a4e39cf3c77e33e6</t>
+  </si>
+  <si>
+    <t>0x2f3df95798c2d7ea02316a5a357fb4aecc8e6ad09cde58579de0de04ffd178f4</t>
+  </si>
+  <si>
+    <t>Nikos give rights to to Eniola so she can vote</t>
+  </si>
+  <si>
+    <t>giveRightToVote / address / 	0xF0263339678ec2ad8C6722b5eCedDB904cBed19D</t>
+  </si>
+  <si>
+    <t>0x0a5d6c894c46050f46d14e626c3cc9c1d0747219b3d42ef81459a3d294e57e2d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,9 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -221,16 +220,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -515,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" s="12"/>
     </row>
@@ -611,83 +613,67 @@
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>24</v>
+      <c r="F14" s="13" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>28</v>
+      <c r="F15" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="D16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/weekend-project-2/Transactions-report.xlsx
+++ b/weekend-project-2/Transactions-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikos\Desktop\SolidityBootcamp\Encode-Solidity-Bootcamp-Weekend-Projects\weekend-project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DD8847-8D1F-4C5D-A7DA-F856368CF2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B9EEF3-15DE-43B1-B38E-4EF8BFCC83CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Nikos</t>
   </si>
@@ -118,6 +118,36 @@
   </si>
   <si>
     <t>0x0a5d6c894c46050f46d14e626c3cc9c1d0747219b3d42ef81459a3d294e57e2d</t>
+  </si>
+  <si>
+    <t>0x4eaf1e7162c5e822b868afe7842e1e84c048a782dd876c6653cc8f3087ae3b98</t>
+  </si>
+  <si>
+    <t>0xf0263339678ec2ad8c6722b5eceddb904cbed19d</t>
+  </si>
+  <si>
+    <t>delegate / address / 	0x56814Ca0854e878C2FD9FfA0899c12f4c4e35346</t>
+  </si>
+  <si>
+    <t>Ercan delegates to Nikos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xb34d9c3ea24873bef098de4c109b2ae5d81bc5dfefd3afeb6eff6251f9bff995 </t>
+  </si>
+  <si>
+    <t>vote / uint256 / 0</t>
+  </si>
+  <si>
+    <t>Nikos votes with weight : 2 (because he Ercan delegates)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xb383e80c5bc2a08277ed0c59fc495495b7aa2089abbd6a93beb24ca6e955664e </t>
+  </si>
+  <si>
+    <t>Fail with error 'Already voted.'</t>
+  </si>
+  <si>
+    <t>Ercan tried to vote, but he had already delegate to Nikos</t>
   </si>
 </sst>
 </file>
@@ -517,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +557,7 @@
     <col min="2" max="2" width="46.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="66.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
@@ -621,7 +651,7 @@
       <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -641,13 +671,13 @@
       <c r="C14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -661,36 +691,90 @@
       <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/weekend-project-2/Transactions-report.xlsx
+++ b/weekend-project-2/Transactions-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikos\Desktop\SolidityBootcamp\Encode-Solidity-Bootcamp-Weekend-Projects\weekend-project-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B9EEF3-15DE-43B1-B38E-4EF8BFCC83CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200675DF-02A3-4DCB-9EB3-E99B2480B617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Nikos</t>
   </si>
@@ -148,18 +148,35 @@
   </si>
   <si>
     <t>Ercan tried to vote, but he had already delegate to Nikos</t>
+  </si>
+  <si>
+    <t>0x751cc18f5c4e05eb63a8419c513739a2919c7212be4c4f49fdefc9f16fa72957</t>
+  </si>
+  <si>
+    <t>proposal / uint256 / 1</t>
+  </si>
+  <si>
+    <t>Eniola votes (weight 1) choice with index 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,9 +241,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -248,6 +265,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -547,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,10 +636,10 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -711,13 +731,13 @@
       <c r="C16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>34</v>
       </c>
     </row>
@@ -731,13 +751,13 @@
       <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -751,17 +771,36 @@
       <c r="C18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
     <row r="20" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
